--- a/data/pca/factorExposure/factorExposure_2016-07-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01215888168285458</v>
+        <v>-0.01355456893127349</v>
       </c>
       <c r="C2">
-        <v>-0.05072806933867785</v>
+        <v>0.04153613755622739</v>
       </c>
       <c r="D2">
-        <v>-0.03707783024546518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06249844148019179</v>
+      </c>
+      <c r="E2">
+        <v>-0.06834595688209855</v>
+      </c>
+      <c r="F2">
+        <v>-0.06386191825875649</v>
+      </c>
+      <c r="G2">
+        <v>0.04063911259893863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05123900486618892</v>
+        <v>-0.02975244166548016</v>
       </c>
       <c r="C3">
-        <v>-0.1056705921888249</v>
+        <v>0.07975144092558441</v>
       </c>
       <c r="D3">
-        <v>-0.09920660298422858</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08913333434410436</v>
+      </c>
+      <c r="E3">
+        <v>-0.06729020897732611</v>
+      </c>
+      <c r="F3">
+        <v>0.01050018061985646</v>
+      </c>
+      <c r="G3">
+        <v>-0.03534618487253545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0661545130086106</v>
+        <v>-0.05867581728794971</v>
       </c>
       <c r="C4">
-        <v>-0.05422056907483137</v>
+        <v>0.0642332545411909</v>
       </c>
       <c r="D4">
-        <v>-0.02851563724918295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06103412544549269</v>
+      </c>
+      <c r="E4">
+        <v>-0.06851105329279225</v>
+      </c>
+      <c r="F4">
+        <v>-0.07925468433093491</v>
+      </c>
+      <c r="G4">
+        <v>-0.03743075214317906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03968159956128371</v>
+        <v>-0.03572546746395214</v>
       </c>
       <c r="C6">
-        <v>-0.03925330969309552</v>
+        <v>0.03207543241873405</v>
       </c>
       <c r="D6">
-        <v>-0.03342066171568626</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06435232555089454</v>
+      </c>
+      <c r="E6">
+        <v>-0.07238131637530119</v>
+      </c>
+      <c r="F6">
+        <v>-0.05721357536509169</v>
+      </c>
+      <c r="G6">
+        <v>-0.02241727775190925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02267088925653495</v>
+        <v>-0.01869278512715627</v>
       </c>
       <c r="C7">
-        <v>-0.044563939621524</v>
+        <v>0.03892324338723981</v>
       </c>
       <c r="D7">
-        <v>0.00504101489919223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03886456720724433</v>
+      </c>
+      <c r="E7">
+        <v>-0.04765096387313939</v>
+      </c>
+      <c r="F7">
+        <v>-0.09833207701151209</v>
+      </c>
+      <c r="G7">
+        <v>-0.005931973244866482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003536194336521994</v>
+        <v>-0.003611270343085784</v>
       </c>
       <c r="C8">
-        <v>-0.03027421622258159</v>
+        <v>0.02872766528344892</v>
       </c>
       <c r="D8">
-        <v>-0.02556828197242697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0316771648830308</v>
+      </c>
+      <c r="E8">
+        <v>-0.04988322448784464</v>
+      </c>
+      <c r="F8">
+        <v>-0.03578791174005466</v>
+      </c>
+      <c r="G8">
+        <v>-0.007665292563190617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03595173918883716</v>
+        <v>-0.03742560138192302</v>
       </c>
       <c r="C9">
-        <v>-0.04342718841955033</v>
+        <v>0.05187427143226792</v>
       </c>
       <c r="D9">
-        <v>-0.0160111863675261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04375482946147422</v>
+      </c>
+      <c r="E9">
+        <v>-0.05631022147741722</v>
+      </c>
+      <c r="F9">
+        <v>-0.08324948704130312</v>
+      </c>
+      <c r="G9">
+        <v>-0.02292874320872793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07156581927437104</v>
+        <v>-0.09896080529527655</v>
       </c>
       <c r="C10">
-        <v>0.1962755762281068</v>
+        <v>-0.1977257625089415</v>
       </c>
       <c r="D10">
-        <v>0.008648088553871012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004581629530894475</v>
+      </c>
+      <c r="E10">
+        <v>-0.04322952771215623</v>
+      </c>
+      <c r="F10">
+        <v>-0.04066628023496617</v>
+      </c>
+      <c r="G10">
+        <v>-0.008157301775960286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04220426643443294</v>
+        <v>-0.03674931336903348</v>
       </c>
       <c r="C11">
-        <v>-0.05437301528448804</v>
+        <v>0.05126583719942394</v>
       </c>
       <c r="D11">
-        <v>-0.0143075337647235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03429229749327092</v>
+      </c>
+      <c r="E11">
+        <v>-0.0156056016469888</v>
+      </c>
+      <c r="F11">
+        <v>-0.06579436211953155</v>
+      </c>
+      <c r="G11">
+        <v>-0.01444538953889583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0416434081717269</v>
+        <v>-0.03753779320034199</v>
       </c>
       <c r="C12">
-        <v>-0.0480257775681809</v>
+        <v>0.04706089283219815</v>
       </c>
       <c r="D12">
-        <v>-0.002865218505928979</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02627609503799208</v>
+      </c>
+      <c r="E12">
+        <v>-0.02349255755294961</v>
+      </c>
+      <c r="F12">
+        <v>-0.06558294182988311</v>
+      </c>
+      <c r="G12">
+        <v>-0.01091913965581969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01505844983933338</v>
+        <v>-0.01261298572555264</v>
       </c>
       <c r="C13">
-        <v>-0.05389213283366943</v>
+        <v>0.04641327331143295</v>
       </c>
       <c r="D13">
-        <v>-0.01867868223786921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05823522017931712</v>
+      </c>
+      <c r="E13">
+        <v>-0.08089631771617915</v>
+      </c>
+      <c r="F13">
+        <v>-0.09539701494838725</v>
+      </c>
+      <c r="G13">
+        <v>-0.01951211393718613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007854509501025597</v>
+        <v>-0.004755166988118857</v>
       </c>
       <c r="C14">
-        <v>-0.03796042722688668</v>
+        <v>0.0334487329769183</v>
       </c>
       <c r="D14">
-        <v>0.01389676114733254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02589948952052133</v>
+      </c>
+      <c r="E14">
+        <v>-0.0354398487001039</v>
+      </c>
+      <c r="F14">
+        <v>-0.09306039523738097</v>
+      </c>
+      <c r="G14">
+        <v>0.007136398911274245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0003780425390943007</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004987568738291712</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007010404975044241</v>
+      </c>
+      <c r="E15">
+        <v>-0.002387558437782456</v>
+      </c>
+      <c r="F15">
+        <v>-0.005495405823556329</v>
+      </c>
+      <c r="G15">
+        <v>9.884589280061396e-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03800757779909267</v>
+        <v>-0.03435156962155864</v>
       </c>
       <c r="C16">
-        <v>-0.04697609184147118</v>
+        <v>0.04548965132081141</v>
       </c>
       <c r="D16">
-        <v>-0.008988556676000396</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0273260839045089</v>
+      </c>
+      <c r="E16">
+        <v>-0.03031338608060557</v>
+      </c>
+      <c r="F16">
+        <v>-0.06581284310666669</v>
+      </c>
+      <c r="G16">
+        <v>-0.0002572209154752219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02251793421000088</v>
+        <v>-0.01699528107737124</v>
       </c>
       <c r="C19">
-        <v>-0.06208226638462528</v>
+        <v>0.04960276924946765</v>
       </c>
       <c r="D19">
-        <v>-0.08128952468275212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09077810900423594</v>
+      </c>
+      <c r="E19">
+        <v>-0.09758624973216487</v>
+      </c>
+      <c r="F19">
+        <v>-0.07019461156312636</v>
+      </c>
+      <c r="G19">
+        <v>0.02636315798921851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01788790477146693</v>
+        <v>-0.01400483036202028</v>
       </c>
       <c r="C20">
-        <v>-0.04805830199998631</v>
+        <v>0.04122836327273913</v>
       </c>
       <c r="D20">
-        <v>-0.01538995942946181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04041731233447063</v>
+      </c>
+      <c r="E20">
+        <v>-0.06714480998099241</v>
+      </c>
+      <c r="F20">
+        <v>-0.07823190296858874</v>
+      </c>
+      <c r="G20">
+        <v>-0.004962282371845342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01208763588056237</v>
+        <v>-0.009718865976955827</v>
       </c>
       <c r="C21">
-        <v>-0.04996886979435063</v>
+        <v>0.04572847034747327</v>
       </c>
       <c r="D21">
-        <v>-0.03877177010444852</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0688181907632134</v>
+      </c>
+      <c r="E21">
+        <v>-0.0958306248011411</v>
+      </c>
+      <c r="F21">
+        <v>-0.119654668786116</v>
+      </c>
+      <c r="G21">
+        <v>-0.005336357526892665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-4.990353477996897e-05</v>
+        <v>-0.00236545979673408</v>
       </c>
       <c r="C22">
-        <v>-0.0001096112845592164</v>
+        <v>0.02460408453872932</v>
       </c>
       <c r="D22">
-        <v>-7.254738888517877e-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03861713440170815</v>
+      </c>
+      <c r="E22">
+        <v>-0.02985568502142341</v>
+      </c>
+      <c r="F22">
+        <v>-0.01349968578725108</v>
+      </c>
+      <c r="G22">
+        <v>-0.039340254630761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-4.990353477996897e-05</v>
+        <v>-0.00243615744322397</v>
       </c>
       <c r="C23">
-        <v>-0.0001096112845592164</v>
+        <v>0.02474832723847096</v>
       </c>
       <c r="D23">
-        <v>-7.254738888517877e-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03828379426784417</v>
+      </c>
+      <c r="E23">
+        <v>-0.03013663384977049</v>
+      </c>
+      <c r="F23">
+        <v>-0.01331049905603216</v>
+      </c>
+      <c r="G23">
+        <v>-0.03955272508790505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03457855148824111</v>
+        <v>-0.03401807570539209</v>
       </c>
       <c r="C24">
-        <v>-0.05077754356547654</v>
+        <v>0.05358659564020518</v>
       </c>
       <c r="D24">
-        <v>-0.007498044471768777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02729174603231111</v>
+      </c>
+      <c r="E24">
+        <v>-0.027347233419514</v>
+      </c>
+      <c r="F24">
+        <v>-0.07514565722477176</v>
+      </c>
+      <c r="G24">
+        <v>-0.008270319416115933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04842561986184202</v>
+        <v>-0.0441252863956596</v>
       </c>
       <c r="C25">
-        <v>-0.0612907437737057</v>
+        <v>0.05726050492528698</v>
       </c>
       <c r="D25">
-        <v>0.0009639559769317963</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02559559506435142</v>
+      </c>
+      <c r="E25">
+        <v>-0.02195676873703507</v>
+      </c>
+      <c r="F25">
+        <v>-0.07704734555682693</v>
+      </c>
+      <c r="G25">
+        <v>-0.02500745582537275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01617417873659713</v>
+        <v>-0.01410970513792407</v>
       </c>
       <c r="C26">
-        <v>-0.01503578145751949</v>
+        <v>0.0177596025823172</v>
       </c>
       <c r="D26">
-        <v>0.002934940413634538</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0247199131693701</v>
+      </c>
+      <c r="E26">
+        <v>-0.03967545360533028</v>
+      </c>
+      <c r="F26">
+        <v>-0.06565779787719922</v>
+      </c>
+      <c r="G26">
+        <v>0.01384484985999723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08546894315057392</v>
+        <v>-0.133669337263347</v>
       </c>
       <c r="C28">
-        <v>0.2372925105093358</v>
+        <v>-0.2475221859275356</v>
       </c>
       <c r="D28">
-        <v>0.007328394939987065</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01741183505623577</v>
+      </c>
+      <c r="E28">
+        <v>-0.05378680971027299</v>
+      </c>
+      <c r="F28">
+        <v>-0.05768941124818509</v>
+      </c>
+      <c r="G28">
+        <v>-0.02020806604335948</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008565861337484633</v>
+        <v>-0.005847971617720448</v>
       </c>
       <c r="C29">
-        <v>-0.0298018029910313</v>
+        <v>0.02935048398169418</v>
       </c>
       <c r="D29">
-        <v>0.01896118235922893</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01986640925442788</v>
+      </c>
+      <c r="E29">
+        <v>-0.03617747576204378</v>
+      </c>
+      <c r="F29">
+        <v>-0.08682425746965695</v>
+      </c>
+      <c r="G29">
+        <v>-0.006358706762419124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.05058988975343262</v>
+        <v>-0.04290808869279845</v>
       </c>
       <c r="C30">
-        <v>-0.06136240109889261</v>
+        <v>0.06516146161683678</v>
       </c>
       <c r="D30">
-        <v>-0.07673605498113331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1101357360545588</v>
+      </c>
+      <c r="E30">
+        <v>-0.06027566493707673</v>
+      </c>
+      <c r="F30">
+        <v>-0.08556442707397462</v>
+      </c>
+      <c r="G30">
+        <v>0.01419549928086556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05373231072633359</v>
+        <v>-0.05532400464214968</v>
       </c>
       <c r="C31">
-        <v>-0.03615336633421545</v>
+        <v>0.05603142648327726</v>
       </c>
       <c r="D31">
-        <v>0.03034520569941671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01282325669145762</v>
+      </c>
+      <c r="E31">
+        <v>-0.06091021764594057</v>
+      </c>
+      <c r="F31">
+        <v>-0.07144080995301083</v>
+      </c>
+      <c r="G31">
+        <v>-0.04579668384193077</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001119413307761256</v>
+        <v>-0.005002787156842429</v>
       </c>
       <c r="C32">
-        <v>-0.03823150549377366</v>
+        <v>0.03486058106635808</v>
       </c>
       <c r="D32">
-        <v>-0.04268849086318098</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05432792436278788</v>
+      </c>
+      <c r="E32">
+        <v>-0.04090440725601185</v>
+      </c>
+      <c r="F32">
+        <v>-0.0663902482168766</v>
+      </c>
+      <c r="G32">
+        <v>0.01038837890749395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02852915379251998</v>
+        <v>-0.02504680184608105</v>
       </c>
       <c r="C33">
-        <v>-0.05985685149675229</v>
+        <v>0.05495035847663274</v>
       </c>
       <c r="D33">
-        <v>-0.0469036794521961</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08039828997754291</v>
+      </c>
+      <c r="E33">
+        <v>-0.07084695299269109</v>
+      </c>
+      <c r="F33">
+        <v>-0.1168267436795783</v>
+      </c>
+      <c r="G33">
+        <v>-0.01893107392631026</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04639366723440617</v>
+        <v>-0.04147597744726344</v>
       </c>
       <c r="C34">
-        <v>-0.06652794628700583</v>
+        <v>0.06428932522743838</v>
       </c>
       <c r="D34">
-        <v>-0.01135191140084569</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03447577086164974</v>
+      </c>
+      <c r="E34">
+        <v>-0.001785752595418859</v>
+      </c>
+      <c r="F34">
+        <v>-0.0766826642568607</v>
+      </c>
+      <c r="G34">
+        <v>-0.01028884814362989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01328920120638136</v>
+        <v>-0.01316263028798383</v>
       </c>
       <c r="C36">
-        <v>-0.01548858899449372</v>
+        <v>0.01321266616705144</v>
       </c>
       <c r="D36">
-        <v>0.002869650784784045</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02709519490895496</v>
+      </c>
+      <c r="E36">
+        <v>-0.04597626831953123</v>
+      </c>
+      <c r="F36">
+        <v>-0.07334250742980553</v>
+      </c>
+      <c r="G36">
+        <v>-0.008233363619426693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03153422959928161</v>
+        <v>-0.0249306823074289</v>
       </c>
       <c r="C38">
-        <v>-0.02857901973894266</v>
+        <v>0.02360122920353507</v>
       </c>
       <c r="D38">
-        <v>0.007477449674048792</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02626346831879615</v>
+      </c>
+      <c r="E38">
+        <v>-0.04448861105457404</v>
+      </c>
+      <c r="F38">
+        <v>-0.06047274686688499</v>
+      </c>
+      <c r="G38">
+        <v>-0.001654200310965249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04645920707824796</v>
+        <v>-0.0402015610859079</v>
       </c>
       <c r="C39">
-        <v>-0.07041120356899402</v>
+        <v>0.06846970114381934</v>
       </c>
       <c r="D39">
-        <v>-0.0218051941366812</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05499226257234679</v>
+      </c>
+      <c r="E39">
+        <v>-0.03239703864642685</v>
+      </c>
+      <c r="F39">
+        <v>-0.08506938102215389</v>
+      </c>
+      <c r="G39">
+        <v>0.01474000505544184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01428423582492722</v>
+        <v>-0.01427166798629653</v>
       </c>
       <c r="C40">
-        <v>-0.05367990957551418</v>
+        <v>0.0397512338136639</v>
       </c>
       <c r="D40">
-        <v>-0.02308077661238984</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03749929377572238</v>
+      </c>
+      <c r="E40">
+        <v>-0.07242187404959712</v>
+      </c>
+      <c r="F40">
+        <v>-0.07248463265879677</v>
+      </c>
+      <c r="G40">
+        <v>-0.03946673673678041</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01853863731477744</v>
+        <v>-0.01802016865379678</v>
       </c>
       <c r="C41">
-        <v>-0.005393443673263225</v>
+        <v>0.007545038831460845</v>
       </c>
       <c r="D41">
-        <v>0.00293611120751103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01433263717998099</v>
+      </c>
+      <c r="E41">
+        <v>-0.04914595624404124</v>
+      </c>
+      <c r="F41">
+        <v>-0.0614622469789831</v>
+      </c>
+      <c r="G41">
+        <v>-0.001097446877660998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03688666451630905</v>
+        <v>-0.02865066683475449</v>
       </c>
       <c r="C43">
-        <v>-0.0220514896642585</v>
+        <v>0.02196164862558551</v>
       </c>
       <c r="D43">
-        <v>-0.01851534529291959</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03975665232379154</v>
+      </c>
+      <c r="E43">
+        <v>-0.05938623117731093</v>
+      </c>
+      <c r="F43">
+        <v>-0.0727491353040304</v>
+      </c>
+      <c r="G43">
+        <v>-0.02058090068095474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01593531761092037</v>
+        <v>-0.01502707286508574</v>
       </c>
       <c r="C44">
-        <v>-0.06445426277542976</v>
+        <v>0.05171163044179165</v>
       </c>
       <c r="D44">
-        <v>-0.01632487198989262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04275863267300922</v>
+      </c>
+      <c r="E44">
+        <v>-0.0781364233264832</v>
+      </c>
+      <c r="F44">
+        <v>-0.07369740558980477</v>
+      </c>
+      <c r="G44">
+        <v>0.007136980281383427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.005044330826056382</v>
+        <v>-0.007728036082042277</v>
       </c>
       <c r="C46">
-        <v>-0.02251758316438346</v>
+        <v>0.02643728733729036</v>
       </c>
       <c r="D46">
-        <v>0.02108210069567763</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01147536396557276</v>
+      </c>
+      <c r="E46">
+        <v>-0.04497852372470655</v>
+      </c>
+      <c r="F46">
+        <v>-0.09941462109292347</v>
+      </c>
+      <c r="G46">
+        <v>0.0008708420406014728</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08362947595271</v>
+        <v>-0.08758629036136591</v>
       </c>
       <c r="C47">
-        <v>-0.06516701749064883</v>
+        <v>0.07901229014471581</v>
       </c>
       <c r="D47">
-        <v>0.0276696311854613</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01743854192735617</v>
+      </c>
+      <c r="E47">
+        <v>-0.06393577236950075</v>
+      </c>
+      <c r="F47">
+        <v>-0.07548469940205831</v>
+      </c>
+      <c r="G47">
+        <v>-0.05003992830150308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01884356720088679</v>
+        <v>-0.0157698117106983</v>
       </c>
       <c r="C48">
-        <v>-0.01256286375201038</v>
+        <v>0.01705308701022345</v>
       </c>
       <c r="D48">
-        <v>0.01624060360019043</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01701271819975624</v>
+      </c>
+      <c r="E48">
+        <v>-0.05728156457031892</v>
+      </c>
+      <c r="F48">
+        <v>-0.08929233705630801</v>
+      </c>
+      <c r="G48">
+        <v>-0.007735683593571868</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0810732583371024</v>
+        <v>-0.07133074607980867</v>
       </c>
       <c r="C50">
-        <v>-0.07233261663185724</v>
+        <v>0.07263519149314447</v>
       </c>
       <c r="D50">
-        <v>0.02936485086727361</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.004081131796102414</v>
+      </c>
+      <c r="E50">
+        <v>-0.06738032603580291</v>
+      </c>
+      <c r="F50">
+        <v>-0.05809124119268132</v>
+      </c>
+      <c r="G50">
+        <v>-0.06896118345250046</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01581782720959177</v>
+        <v>-0.01107917080277838</v>
       </c>
       <c r="C51">
-        <v>-0.04869015947070807</v>
+        <v>0.0333168347360082</v>
       </c>
       <c r="D51">
-        <v>-0.02459304489401045</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04969898687367032</v>
+      </c>
+      <c r="E51">
+        <v>-0.03576543487593509</v>
+      </c>
+      <c r="F51">
+        <v>-0.07620004317036377</v>
+      </c>
+      <c r="G51">
+        <v>0.02134059261222735</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08246962177757076</v>
+        <v>-0.09395532496196393</v>
       </c>
       <c r="C53">
-        <v>-0.07650595579872828</v>
+        <v>0.08673358726723915</v>
       </c>
       <c r="D53">
-        <v>0.03967548749803923</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0398011854834547</v>
+      </c>
+      <c r="E53">
+        <v>-0.06149395995070999</v>
+      </c>
+      <c r="F53">
+        <v>-0.08572705780930684</v>
+      </c>
+      <c r="G53">
+        <v>-0.06245582943904981</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03019787103019802</v>
+        <v>-0.02770142722001407</v>
       </c>
       <c r="C54">
-        <v>-0.02585159648525655</v>
+        <v>0.02695306409037889</v>
       </c>
       <c r="D54">
-        <v>0.0003144082621482243</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02945064182413527</v>
+      </c>
+      <c r="E54">
+        <v>-0.04529111431897675</v>
+      </c>
+      <c r="F54">
+        <v>-0.09767935147257903</v>
+      </c>
+      <c r="G54">
+        <v>-0.007222267647851656</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07577387887394982</v>
+        <v>-0.08525099628152234</v>
       </c>
       <c r="C55">
-        <v>-0.05761185879370646</v>
+        <v>0.06946598171599563</v>
       </c>
       <c r="D55">
-        <v>0.04735060538656351</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04752691085842823</v>
+      </c>
+      <c r="E55">
+        <v>-0.04825767046632513</v>
+      </c>
+      <c r="F55">
+        <v>-0.06007026557140607</v>
+      </c>
+      <c r="G55">
+        <v>-0.05069747320917437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1453842451155103</v>
+        <v>-0.1475353981602188</v>
       </c>
       <c r="C56">
-        <v>-0.09150040300910522</v>
+        <v>0.104043866338891</v>
       </c>
       <c r="D56">
-        <v>0.04387382135090255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04908124570239294</v>
+      </c>
+      <c r="E56">
+        <v>-0.05107937623371341</v>
+      </c>
+      <c r="F56">
+        <v>-0.04525643552155541</v>
+      </c>
+      <c r="G56">
+        <v>-0.05906174574406392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.00143021675089744</v>
+        <v>-0.0007638035253992259</v>
       </c>
       <c r="C57">
-        <v>0.001955189752094815</v>
+        <v>-0.0009029238748409303</v>
       </c>
       <c r="D57">
-        <v>-0.01578757475741967</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.0122268527952127</v>
+      </c>
+      <c r="E57">
+        <v>-0.00811414081135093</v>
+      </c>
+      <c r="F57">
+        <v>-0.00741836364268917</v>
+      </c>
+      <c r="G57">
+        <v>-0.002120433835609479</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05809018559133283</v>
+        <v>-0.03044370769750351</v>
       </c>
       <c r="C58">
-        <v>-0.02257846378175904</v>
+        <v>0.03420113176483689</v>
       </c>
       <c r="D58">
-        <v>-0.7160266145846684</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4141400276527162</v>
+      </c>
+      <c r="E58">
+        <v>-0.6595932091220104</v>
+      </c>
+      <c r="F58">
+        <v>0.5459719623978534</v>
+      </c>
+      <c r="G58">
+        <v>0.05989205693130981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1287860697703879</v>
+        <v>-0.1438936476020654</v>
       </c>
       <c r="C59">
-        <v>0.1980907887543307</v>
+        <v>-0.1875702403816542</v>
       </c>
       <c r="D59">
-        <v>-0.01870128442582158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03073241252679739</v>
+      </c>
+      <c r="E59">
+        <v>-0.02587898641387202</v>
+      </c>
+      <c r="F59">
+        <v>-0.0202263992536789</v>
+      </c>
+      <c r="G59">
+        <v>0.03002271027737152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3108055059295194</v>
+        <v>-0.2828528445520487</v>
       </c>
       <c r="C60">
-        <v>-0.08645084508831201</v>
+        <v>0.09789466293405998</v>
       </c>
       <c r="D60">
-        <v>-0.1240148029835695</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2166738505465752</v>
+      </c>
+      <c r="E60">
+        <v>0.266727807804857</v>
+      </c>
+      <c r="F60">
+        <v>0.09369775099105071</v>
+      </c>
+      <c r="G60">
+        <v>-0.0492300695259594</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04407351612826258</v>
+        <v>-0.04140483908363915</v>
       </c>
       <c r="C61">
-        <v>-0.06579552695507174</v>
+        <v>0.06287469842302082</v>
       </c>
       <c r="D61">
-        <v>-0.01577605759382503</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04627685498533204</v>
+      </c>
+      <c r="E61">
+        <v>-0.03672801406298384</v>
+      </c>
+      <c r="F61">
+        <v>-0.07651291795243838</v>
+      </c>
+      <c r="G61">
+        <v>-0.01161475788393861</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01626248582393519</v>
+        <v>-0.01560291893228353</v>
       </c>
       <c r="C63">
-        <v>-0.03514446651932978</v>
+        <v>0.03241570050094156</v>
       </c>
       <c r="D63">
-        <v>0.007583495361848927</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02273550422816808</v>
+      </c>
+      <c r="E63">
+        <v>-0.05002654519254495</v>
+      </c>
+      <c r="F63">
+        <v>-0.06913357966314719</v>
+      </c>
+      <c r="G63">
+        <v>-0.02720002146345889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04896748656594849</v>
+        <v>-0.05597936218857813</v>
       </c>
       <c r="C64">
-        <v>-0.04276883531085807</v>
+        <v>0.05479084345675161</v>
       </c>
       <c r="D64">
-        <v>-0.001016944365134926</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.007501394981228152</v>
+      </c>
+      <c r="E64">
+        <v>-0.03013776801090951</v>
+      </c>
+      <c r="F64">
+        <v>-0.08631112455812805</v>
+      </c>
+      <c r="G64">
+        <v>-0.009394329397095875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08828790479882913</v>
+        <v>-0.07004667720577891</v>
       </c>
       <c r="C65">
-        <v>-0.03042765722431318</v>
+        <v>0.03272645713889408</v>
       </c>
       <c r="D65">
-        <v>-0.05272983101610092</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08679697486009297</v>
+      </c>
+      <c r="E65">
+        <v>-0.03697362778338309</v>
+      </c>
+      <c r="F65">
+        <v>-0.006889413808677305</v>
+      </c>
+      <c r="G65">
+        <v>-0.004606041621125882</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0649876912028003</v>
+        <v>-0.05295070600266615</v>
       </c>
       <c r="C66">
-        <v>-0.1005638653090261</v>
+        <v>0.09065033607149879</v>
       </c>
       <c r="D66">
-        <v>-0.04494887745662277</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08216031369564961</v>
+      </c>
+      <c r="E66">
+        <v>-0.03823065352490072</v>
+      </c>
+      <c r="F66">
+        <v>-0.08640890826171919</v>
+      </c>
+      <c r="G66">
+        <v>-0.002893450953044118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05380210811850743</v>
+        <v>-0.04685900111654696</v>
       </c>
       <c r="C67">
-        <v>-0.03262806330705136</v>
+        <v>0.03004284367086417</v>
       </c>
       <c r="D67">
-        <v>0.009781068569763208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01292021614632773</v>
+      </c>
+      <c r="E67">
+        <v>-0.02487278740584875</v>
+      </c>
+      <c r="F67">
+        <v>-0.0496670219525335</v>
+      </c>
+      <c r="G67">
+        <v>-0.008621810434042311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1156830113153408</v>
+        <v>-0.1486757880174843</v>
       </c>
       <c r="C68">
-        <v>0.2826899036650872</v>
+        <v>-0.2509581898192801</v>
       </c>
       <c r="D68">
-        <v>0.01265678354319581</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0178755419662926</v>
+      </c>
+      <c r="E68">
+        <v>-0.04329244288304174</v>
+      </c>
+      <c r="F68">
+        <v>-0.01355399589578635</v>
+      </c>
+      <c r="G68">
+        <v>-0.01067369939716951</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09069013720265483</v>
+        <v>-0.0874241981098248</v>
       </c>
       <c r="C69">
-        <v>-0.06387155256273465</v>
+        <v>0.08590738674307068</v>
       </c>
       <c r="D69">
-        <v>0.03886580446581551</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008955121866255336</v>
+      </c>
+      <c r="E69">
+        <v>-0.04721529319821498</v>
+      </c>
+      <c r="F69">
+        <v>-0.09196901479890117</v>
+      </c>
+      <c r="G69">
+        <v>-0.02724797068070236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1100041985824755</v>
+        <v>-0.1416051680908031</v>
       </c>
       <c r="C71">
-        <v>0.2476128172461065</v>
+        <v>-0.2356059994524327</v>
       </c>
       <c r="D71">
-        <v>-0.02266017824412732</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01396090453173083</v>
+      </c>
+      <c r="E71">
+        <v>-0.06172201958103039</v>
+      </c>
+      <c r="F71">
+        <v>-0.05514369974190446</v>
+      </c>
+      <c r="G71">
+        <v>-0.03547142697622589</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.09096718509133335</v>
+        <v>-0.09829577226844731</v>
       </c>
       <c r="C72">
-        <v>-0.04942711550169047</v>
+        <v>0.05674183003472027</v>
       </c>
       <c r="D72">
-        <v>-0.00350475576771005</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02815417341430057</v>
+      </c>
+      <c r="E72">
+        <v>-0.01515636618035977</v>
+      </c>
+      <c r="F72">
+        <v>-0.0711844150238648</v>
+      </c>
+      <c r="G72">
+        <v>-0.03352332619929754</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.416917354925128</v>
+        <v>-0.3481588063294015</v>
       </c>
       <c r="C73">
-        <v>-0.04931460186459991</v>
+        <v>0.07769019615653978</v>
       </c>
       <c r="D73">
-        <v>-0.3333963428787706</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4602424446055309</v>
+      </c>
+      <c r="E73">
+        <v>0.4798560337642225</v>
+      </c>
+      <c r="F73">
+        <v>0.2521202474324786</v>
+      </c>
+      <c r="G73">
+        <v>-0.107227235151207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1104601879685494</v>
+        <v>-0.1115092858444568</v>
       </c>
       <c r="C74">
-        <v>-0.09657163890226513</v>
+        <v>0.09750728139996105</v>
       </c>
       <c r="D74">
-        <v>0.02206882006271479</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03077266528802989</v>
+      </c>
+      <c r="E74">
+        <v>-0.06481322900106344</v>
+      </c>
+      <c r="F74">
+        <v>-0.04890291735215607</v>
+      </c>
+      <c r="G74">
+        <v>-0.0729708491515966</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2554657918786314</v>
+        <v>-0.2578828308145849</v>
       </c>
       <c r="C75">
-        <v>-0.09882589340260392</v>
+        <v>0.1294124940951356</v>
       </c>
       <c r="D75">
-        <v>0.08791007023193156</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1274007619657903</v>
+      </c>
+      <c r="E75">
+        <v>-0.07031360998132105</v>
+      </c>
+      <c r="F75">
+        <v>-0.01639864898558104</v>
+      </c>
+      <c r="G75">
+        <v>-0.07401993861224314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1143870293903147</v>
+        <v>-0.1281310856857065</v>
       </c>
       <c r="C76">
-        <v>-0.08928665561409407</v>
+        <v>0.09899664414574183</v>
       </c>
       <c r="D76">
-        <v>0.04277867238308166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05706392566290528</v>
+      </c>
+      <c r="E76">
+        <v>-0.07797216417253387</v>
+      </c>
+      <c r="F76">
+        <v>-0.06974323562976688</v>
+      </c>
+      <c r="G76">
+        <v>-0.05670580646445849</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07942903561175234</v>
+        <v>-0.06384205390806441</v>
       </c>
       <c r="C77">
-        <v>-0.06068221940534213</v>
+        <v>0.07352600918204236</v>
       </c>
       <c r="D77">
-        <v>-0.05738451467864508</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0645340823366068</v>
+      </c>
+      <c r="E77">
+        <v>-0.09348617188834103</v>
+      </c>
+      <c r="F77">
+        <v>-0.1067585836857265</v>
+      </c>
+      <c r="G77">
+        <v>0.1338091334367575</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04962715833115353</v>
+        <v>-0.04379027263032531</v>
       </c>
       <c r="C78">
-        <v>-0.04965207278768134</v>
+        <v>0.06145543351833618</v>
       </c>
       <c r="D78">
-        <v>-0.0235254061257353</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06607342449011423</v>
+      </c>
+      <c r="E78">
+        <v>-0.04219202369834071</v>
+      </c>
+      <c r="F78">
+        <v>-0.08482251909190246</v>
+      </c>
+      <c r="G78">
+        <v>-0.005288469390986805</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02658093822941483</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03925956347057358</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06088629771882141</v>
+      </c>
+      <c r="E79">
+        <v>-0.05939505932693882</v>
+      </c>
+      <c r="F79">
+        <v>-0.03560330261497249</v>
+      </c>
+      <c r="G79">
+        <v>-0.06793816494745196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04691585396011971</v>
+        <v>-0.03477791145146608</v>
       </c>
       <c r="C80">
-        <v>-0.0537308662737767</v>
+        <v>0.05506240641285667</v>
       </c>
       <c r="D80">
-        <v>-0.03046296733303411</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04468952655062626</v>
+      </c>
+      <c r="E80">
+        <v>-0.01601294005226174</v>
+      </c>
+      <c r="F80">
+        <v>-0.03242691048841866</v>
+      </c>
+      <c r="G80">
+        <v>0.04757940582459472</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1412999981804674</v>
+        <v>-0.1407623569400274</v>
       </c>
       <c r="C81">
-        <v>-0.07689510676910256</v>
+        <v>0.09382123754169318</v>
       </c>
       <c r="D81">
-        <v>0.06672275239345332</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1000479117927737</v>
+      </c>
+      <c r="E81">
+        <v>-0.08524247138649782</v>
+      </c>
+      <c r="F81">
+        <v>-0.01153798012113154</v>
+      </c>
+      <c r="G81">
+        <v>-0.05149934629093795</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1612202092453823</v>
+        <v>-0.2030465856225869</v>
       </c>
       <c r="C82">
-        <v>-0.06857110406117209</v>
+        <v>0.137210089572195</v>
       </c>
       <c r="D82">
-        <v>0.1607891840307982</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2355586083234266</v>
+      </c>
+      <c r="E82">
+        <v>-0.005742864516793515</v>
+      </c>
+      <c r="F82">
+        <v>-0.1030827626027043</v>
+      </c>
+      <c r="G82">
+        <v>-0.04862728576162682</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04082144522124511</v>
+        <v>-0.02832361422884972</v>
       </c>
       <c r="C83">
-        <v>-0.02684287243224737</v>
+        <v>0.04237399576473651</v>
       </c>
       <c r="D83">
-        <v>-0.03296558167682968</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03390106336170972</v>
+      </c>
+      <c r="E83">
+        <v>-0.01948017959803105</v>
+      </c>
+      <c r="F83">
+        <v>-0.03985250922746247</v>
+      </c>
+      <c r="G83">
+        <v>0.02187004448127489</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1.6756164657132e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.0002228578554067986</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0001729447601645347</v>
+      </c>
+      <c r="E84">
+        <v>6.63847508860061e-05</v>
+      </c>
+      <c r="F84">
+        <v>-0.0005475441754637457</v>
+      </c>
+      <c r="G84">
+        <v>-0.0002738407762000237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2212678377292452</v>
+        <v>-0.2037294860429694</v>
       </c>
       <c r="C85">
-        <v>-0.101715118802685</v>
+        <v>0.1167082498340037</v>
       </c>
       <c r="D85">
-        <v>0.1151408871254228</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09764867197089386</v>
+      </c>
+      <c r="E85">
+        <v>-1.318216746627029e-05</v>
+      </c>
+      <c r="F85">
+        <v>0.007958526974621207</v>
+      </c>
+      <c r="G85">
+        <v>-0.1248034725408906</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01033672743624548</v>
+        <v>-0.0108131162989415</v>
       </c>
       <c r="C86">
-        <v>-0.04230421615470648</v>
+        <v>0.03198652590992813</v>
       </c>
       <c r="D86">
-        <v>-0.04393765293687713</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06527606537073195</v>
+      </c>
+      <c r="E86">
+        <v>-0.06166474504945275</v>
+      </c>
+      <c r="F86">
+        <v>-0.1246965500095862</v>
+      </c>
+      <c r="G86">
+        <v>0.01607411128748121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0251137961544171</v>
+        <v>-0.02270606327421135</v>
       </c>
       <c r="C87">
-        <v>-0.01062690567851744</v>
+        <v>0.02110699590641603</v>
       </c>
       <c r="D87">
-        <v>-0.09536240536762364</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09121213200569105</v>
+      </c>
+      <c r="E87">
+        <v>-0.1103216918656634</v>
+      </c>
+      <c r="F87">
+        <v>-0.06594042498622556</v>
+      </c>
+      <c r="G87">
+        <v>0.03970026374421247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1073736564267588</v>
+        <v>-0.09299408976480042</v>
       </c>
       <c r="C88">
-        <v>-0.06572667126568361</v>
+        <v>0.06250852590249269</v>
       </c>
       <c r="D88">
-        <v>0.03153352447707956</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.005176676751140699</v>
+      </c>
+      <c r="E88">
+        <v>-0.04315974804584351</v>
+      </c>
+      <c r="F88">
+        <v>-0.07003191049069223</v>
+      </c>
+      <c r="G88">
+        <v>0.02802564850767883</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1741357495469494</v>
+        <v>-0.2183242725859773</v>
       </c>
       <c r="C89">
-        <v>0.3841109960086926</v>
+        <v>-0.3803412157465422</v>
       </c>
       <c r="D89">
-        <v>0.02357325329393113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.004794011508209758</v>
+      </c>
+      <c r="E89">
+        <v>-0.06209596231473062</v>
+      </c>
+      <c r="F89">
+        <v>-0.0765274284154554</v>
+      </c>
+      <c r="G89">
+        <v>0.06450677955453923</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1694176700363015</v>
+        <v>-0.1984311034567577</v>
       </c>
       <c r="C90">
-        <v>0.343032231417473</v>
+        <v>-0.3154605959171365</v>
       </c>
       <c r="D90">
-        <v>0.02259794423556304</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01202055989138855</v>
+      </c>
+      <c r="E90">
+        <v>-0.07205360513786617</v>
+      </c>
+      <c r="F90">
+        <v>-0.04309657350359331</v>
+      </c>
+      <c r="G90">
+        <v>0.01266497591641816</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1912771699942454</v>
+        <v>-0.1861791703511072</v>
       </c>
       <c r="C91">
-        <v>-0.1229368646075802</v>
+        <v>0.1395303957007979</v>
       </c>
       <c r="D91">
-        <v>0.08517434337355331</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1082634247427206</v>
+      </c>
+      <c r="E91">
+        <v>-0.06164767996105916</v>
+      </c>
+      <c r="F91">
+        <v>-0.03701215109794487</v>
+      </c>
+      <c r="G91">
+        <v>-0.05793091881431838</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1601627334094444</v>
+        <v>-0.1800468749744438</v>
       </c>
       <c r="C92">
-        <v>0.2925988035853812</v>
+        <v>-0.2859393894152975</v>
       </c>
       <c r="D92">
-        <v>0.007774627314637382</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.004735626844052199</v>
+      </c>
+      <c r="E92">
+        <v>-0.06917006840179352</v>
+      </c>
+      <c r="F92">
+        <v>-0.08359396736555935</v>
+      </c>
+      <c r="G92">
+        <v>0.01122005102936972</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1934487057066227</v>
+        <v>-0.2218855148340505</v>
       </c>
       <c r="C93">
-        <v>0.3437766337747861</v>
+        <v>-0.3196133838369672</v>
       </c>
       <c r="D93">
-        <v>0.0196602272043528</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004237381947582147</v>
+      </c>
+      <c r="E93">
+        <v>-0.04666523541214957</v>
+      </c>
+      <c r="F93">
+        <v>-0.04291541137090932</v>
+      </c>
+      <c r="G93">
+        <v>-0.02682772840626692</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3404206350588516</v>
+        <v>-0.3444155440377286</v>
       </c>
       <c r="C94">
-        <v>-0.1360450914428929</v>
+        <v>0.1765943454106487</v>
       </c>
       <c r="D94">
-        <v>0.4414633503873877</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.5060714664150286</v>
+      </c>
+      <c r="E94">
+        <v>-0.05026773202913402</v>
+      </c>
+      <c r="F94">
+        <v>0.4501822279246274</v>
+      </c>
+      <c r="G94">
+        <v>0.3207697900926959</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1123484855277272</v>
+        <v>-0.0854797507390143</v>
       </c>
       <c r="C95">
-        <v>-0.07627364174285174</v>
+        <v>0.06846402251182271</v>
       </c>
       <c r="D95">
-        <v>-0.1239942888907719</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1687098489348703</v>
+      </c>
+      <c r="E95">
+        <v>0.1066542938300499</v>
+      </c>
+      <c r="F95">
+        <v>-0.2075094784964642</v>
+      </c>
+      <c r="G95">
+        <v>0.8712834732525515</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.198599290611472</v>
+        <v>-0.1885208945132563</v>
       </c>
       <c r="C98">
-        <v>-0.0141523506192921</v>
+        <v>0.04096140389213203</v>
       </c>
       <c r="D98">
-        <v>-0.1260279156884713</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.183570459193542</v>
+      </c>
+      <c r="E98">
+        <v>0.1529240432479237</v>
+      </c>
+      <c r="F98">
+        <v>0.0364650512943307</v>
+      </c>
+      <c r="G98">
+        <v>-0.09707122100715558</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008501439880169976</v>
+        <v>-0.00589950984194694</v>
       </c>
       <c r="C101">
-        <v>-0.02982385257018979</v>
+        <v>0.02909108671951983</v>
       </c>
       <c r="D101">
-        <v>0.01952861068876519</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01933566483143491</v>
+      </c>
+      <c r="E101">
+        <v>-0.0368401768580925</v>
+      </c>
+      <c r="F101">
+        <v>-0.08651759543491531</v>
+      </c>
+      <c r="G101">
+        <v>-0.00528646313367708</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.123586982373368</v>
+        <v>-0.1248728865216301</v>
       </c>
       <c r="C102">
-        <v>-0.07037820314474466</v>
+        <v>0.09709468444073502</v>
       </c>
       <c r="D102">
-        <v>0.02891868421807825</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04663741601926685</v>
+      </c>
+      <c r="E102">
+        <v>0.004483270845803758</v>
+      </c>
+      <c r="F102">
+        <v>-0.04477106200101599</v>
+      </c>
+      <c r="G102">
+        <v>-0.01821925687988084</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
